--- a/Code/Results/Cases/Case_1_249/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_249/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.57968579785161</v>
+        <v>13.59876144578819</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.485344778405105</v>
+        <v>10.33025063612868</v>
       </c>
       <c r="E2">
-        <v>9.28765444272849</v>
+        <v>15.6201235816481</v>
       </c>
       <c r="F2">
-        <v>19.90746626125173</v>
+        <v>31.20130980610337</v>
       </c>
       <c r="G2">
-        <v>21.00993862148151</v>
+        <v>30.74189977499416</v>
       </c>
       <c r="H2">
-        <v>8.819696827441298</v>
+        <v>14.91809306450685</v>
       </c>
       <c r="I2">
-        <v>16.18306877134574</v>
+        <v>26.56936379662695</v>
       </c>
       <c r="J2">
-        <v>6.721266873662906</v>
+        <v>11.15413369404624</v>
       </c>
       <c r="K2">
-        <v>13.91636394007453</v>
+        <v>9.389141871653191</v>
       </c>
       <c r="L2">
-        <v>7.009224659269909</v>
+        <v>9.347667937842663</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.14585320530271</v>
+        <v>22.94644218535537</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.85909569481828</v>
+        <v>13.42491336756516</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.398695916864687</v>
+        <v>10.33680074722178</v>
       </c>
       <c r="E3">
-        <v>9.373655011774478</v>
+        <v>15.66576440625294</v>
       </c>
       <c r="F3">
-        <v>19.9013186436098</v>
+        <v>31.3046774702009</v>
       </c>
       <c r="G3">
-        <v>20.9340782075217</v>
+        <v>30.86094587252274</v>
       </c>
       <c r="H3">
-        <v>8.905330840514976</v>
+        <v>14.9682581153946</v>
       </c>
       <c r="I3">
-        <v>16.52053736759476</v>
+        <v>26.69695683065929</v>
       </c>
       <c r="J3">
-        <v>6.787793463899155</v>
+        <v>11.17930656722714</v>
       </c>
       <c r="K3">
-        <v>13.21540459250419</v>
+        <v>9.038988737968175</v>
       </c>
       <c r="L3">
-        <v>6.692308106875021</v>
+        <v>9.293022183203908</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.23914354130564</v>
+        <v>23.03416769223677</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.39583472664998</v>
+        <v>13.31860683793639</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.347486496864136</v>
+        <v>10.34217889220578</v>
       </c>
       <c r="E4">
-        <v>9.430056345067044</v>
+        <v>15.6956174040263</v>
       </c>
       <c r="F4">
-        <v>19.91412981342789</v>
+        <v>31.37472359664035</v>
       </c>
       <c r="G4">
-        <v>20.91185033828538</v>
+        <v>30.94283025612953</v>
       </c>
       <c r="H4">
-        <v>8.962733117122205</v>
+        <v>15.00121564842478</v>
       </c>
       <c r="I4">
-        <v>16.73559998349002</v>
+        <v>26.77956808317264</v>
       </c>
       <c r="J4">
-        <v>6.830035295294763</v>
+        <v>11.19558984799751</v>
       </c>
       <c r="K4">
-        <v>12.76483888623683</v>
+        <v>8.815487649723725</v>
       </c>
       <c r="L4">
-        <v>6.49131014660991</v>
+        <v>9.260232783906149</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.3076278572269</v>
+        <v>23.09245471724982</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.2019581839161</v>
+        <v>13.27544086479237</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.327137081875186</v>
+        <v>10.34471239689204</v>
       </c>
       <c r="E5">
-        <v>9.453934359847567</v>
+        <v>15.70824359950783</v>
       </c>
       <c r="F5">
-        <v>19.92339134530026</v>
+        <v>31.40491985603799</v>
       </c>
       <c r="G5">
-        <v>20.90870189769737</v>
+        <v>30.97840148370277</v>
       </c>
       <c r="H5">
-        <v>8.987304438295281</v>
+        <v>15.01518867998672</v>
       </c>
       <c r="I5">
-        <v>16.82520944340085</v>
+        <v>26.81430845814576</v>
       </c>
       <c r="J5">
-        <v>6.847604171569091</v>
+        <v>11.20243397160338</v>
       </c>
       <c r="K5">
-        <v>12.57627920320635</v>
+        <v>8.722361352655946</v>
       </c>
       <c r="L5">
-        <v>6.407892252961799</v>
+        <v>9.247071994819461</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.33824714747602</v>
+        <v>23.11731859817586</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.16946221187213</v>
+        <v>13.2682838490571</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.323789904739129</v>
+        <v>10.34515375340421</v>
       </c>
       <c r="E6">
-        <v>9.457952990519694</v>
+        <v>15.71036802938387</v>
       </c>
       <c r="F6">
-        <v>19.92516941313488</v>
+        <v>31.41003362598413</v>
       </c>
       <c r="G6">
-        <v>20.90852953254102</v>
+        <v>30.98444086851655</v>
       </c>
       <c r="H6">
-        <v>8.991454786062427</v>
+        <v>15.01754167382994</v>
       </c>
       <c r="I6">
-        <v>16.84020786899153</v>
+        <v>26.8201421019381</v>
       </c>
       <c r="J6">
-        <v>6.850543036766759</v>
+        <v>11.20358304665675</v>
       </c>
       <c r="K6">
-        <v>12.544674085298</v>
+        <v>8.706776997734005</v>
       </c>
       <c r="L6">
-        <v>6.393952884780028</v>
+        <v>9.244899069108683</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.34349217928516</v>
+        <v>23.12151433153906</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.39324045586901</v>
+        <v>13.31802400043209</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.347209934377597</v>
+        <v>10.34221167471339</v>
       </c>
       <c r="E7">
-        <v>9.430374765737618</v>
+        <v>15.69578581817915</v>
       </c>
       <c r="F7">
-        <v>19.91423853031802</v>
+        <v>31.37512414847205</v>
       </c>
       <c r="G7">
-        <v>20.91178424127241</v>
+        <v>30.94330107379307</v>
       </c>
       <c r="H7">
-        <v>8.963059761623859</v>
+        <v>15.0014018961981</v>
       </c>
       <c r="I7">
-        <v>16.73680051849243</v>
+        <v>26.78003224588362</v>
       </c>
       <c r="J7">
-        <v>6.830270792234058</v>
+        <v>11.19568130502535</v>
       </c>
       <c r="K7">
-        <v>12.76231576878718</v>
+        <v>8.814239878975922</v>
       </c>
       <c r="L7">
-        <v>6.490191109821055</v>
+        <v>9.260054466453896</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.30802995912039</v>
+        <v>23.09278554111435</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.33562126355015</v>
+        <v>13.53875491477913</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.455065429590971</v>
+        <v>10.33222810393497</v>
       </c>
       <c r="E8">
-        <v>9.316554514969891</v>
+        <v>15.63548137017385</v>
       </c>
       <c r="F8">
-        <v>19.90182728936281</v>
+        <v>31.23558444186346</v>
       </c>
       <c r="G8">
-        <v>20.97860376554834</v>
+        <v>30.78111815291954</v>
       </c>
       <c r="H8">
-        <v>8.848201881751809</v>
+        <v>14.93494275626057</v>
       </c>
       <c r="I8">
-        <v>16.29779343799993</v>
+        <v>26.61247327477432</v>
       </c>
       <c r="J8">
-        <v>6.743918558930149</v>
+        <v>11.16264200543635</v>
       </c>
       <c r="K8">
-        <v>13.67892614300573</v>
+        <v>9.270225670694177</v>
       </c>
       <c r="L8">
-        <v>6.901338952460131</v>
+        <v>9.328673262438212</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.17562980737373</v>
+        <v>22.97577142331287</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.01377998646304</v>
+        <v>13.97310535419625</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.681565881867131</v>
+        <v>10.32337519581865</v>
       </c>
       <c r="E9">
-        <v>9.122388851305487</v>
+        <v>15.5317010624111</v>
       </c>
       <c r="F9">
-        <v>20.01467273462833</v>
+        <v>31.01423426777663</v>
       </c>
       <c r="G9">
-        <v>21.31160616757294</v>
+        <v>30.53314254704701</v>
       </c>
       <c r="H9">
-        <v>8.662825067973539</v>
+        <v>14.82170402188708</v>
       </c>
       <c r="I9">
-        <v>15.49960772997972</v>
+        <v>26.31765726487633</v>
       </c>
       <c r="J9">
-        <v>6.585437699490562</v>
+        <v>11.10438719451152</v>
       </c>
       <c r="K9">
-        <v>15.31212994377904</v>
+        <v>10.09346281213534</v>
       </c>
       <c r="L9">
-        <v>7.652982103720619</v>
+        <v>9.468875690557152</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.0097685387439</v>
+        <v>22.78143877624916</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.13861073113131</v>
+        <v>14.29052569285846</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.855975830270326</v>
+        <v>10.32335622014657</v>
       </c>
       <c r="E10">
-        <v>8.998173249659661</v>
+        <v>15.46422558501945</v>
       </c>
       <c r="F10">
-        <v>20.18846828543214</v>
+        <v>30.88360513692709</v>
       </c>
       <c r="G10">
-        <v>21.69006539710008</v>
+        <v>30.3940882706026</v>
       </c>
       <c r="H10">
-        <v>8.553281809302057</v>
+        <v>14.7488976319798</v>
       </c>
       <c r="I10">
-        <v>14.95216244307728</v>
+        <v>26.12149608906765</v>
       </c>
       <c r="J10">
-        <v>6.475319490721596</v>
+        <v>11.06553349091945</v>
       </c>
       <c r="K10">
-        <v>16.40768891226878</v>
+        <v>10.65109364631567</v>
       </c>
       <c r="L10">
-        <v>8.178927659331546</v>
+        <v>9.574751740696419</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.9519447971371</v>
+        <v>22.66012747430565</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.62627462430584</v>
+        <v>14.43401994283967</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.936807215390295</v>
+        <v>10.3247430415326</v>
       </c>
       <c r="E11">
-        <v>8.9458452835585</v>
+        <v>15.43542273163673</v>
       </c>
       <c r="F11">
-        <v>20.28869500787263</v>
+        <v>30.83114962525852</v>
       </c>
       <c r="G11">
-        <v>21.89317137675688</v>
+        <v>30.34027673023848</v>
       </c>
       <c r="H11">
-        <v>8.509795517015561</v>
+        <v>14.71802672191015</v>
       </c>
       <c r="I11">
-        <v>14.71183797034879</v>
+        <v>26.03666520703997</v>
       </c>
       <c r="J11">
-        <v>6.42652748357635</v>
+        <v>11.04870673853024</v>
       </c>
       <c r="K11">
-        <v>16.88286760293231</v>
+        <v>10.8938648416299</v>
       </c>
       <c r="L11">
-        <v>8.442045533840348</v>
+        <v>9.623415621448034</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.94106319441193</v>
+        <v>22.60961085610521</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.80745596136102</v>
+        <v>14.48818399460891</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.967609503474772</v>
+        <v>10.32546763204921</v>
       </c>
       <c r="E12">
-        <v>8.926647084392682</v>
+        <v>15.42478707646827</v>
       </c>
       <c r="F12">
-        <v>20.32979901165275</v>
+        <v>30.81228981734013</v>
       </c>
       <c r="G12">
-        <v>21.9746571669377</v>
+        <v>30.32126391070142</v>
       </c>
       <c r="H12">
-        <v>8.494291146065947</v>
+        <v>14.70665975698107</v>
       </c>
       <c r="I12">
-        <v>14.62211655646103</v>
+        <v>26.00517302488946</v>
       </c>
       <c r="J12">
-        <v>6.408232644010252</v>
+        <v>11.04245622049322</v>
       </c>
       <c r="K12">
-        <v>17.05943956441496</v>
+        <v>10.98418368503997</v>
       </c>
       <c r="L12">
-        <v>8.539677088507352</v>
+        <v>9.641904558879606</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.93928759514669</v>
+        <v>22.59115374815196</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.76859074831373</v>
+        <v>14.47652723351263</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.960967421284868</v>
+        <v>10.32530272925992</v>
       </c>
       <c r="E13">
-        <v>8.930754033132068</v>
+        <v>15.4270655976377</v>
       </c>
       <c r="F13">
-        <v>20.32080479821256</v>
+        <v>30.81630693455844</v>
       </c>
       <c r="G13">
-        <v>21.95690255100611</v>
+        <v>30.32529788298864</v>
       </c>
       <c r="H13">
-        <v>8.497586625683439</v>
+        <v>14.70909346646032</v>
       </c>
       <c r="I13">
-        <v>14.6413819682235</v>
+        <v>26.01192737544896</v>
       </c>
       <c r="J13">
-        <v>6.412164776600574</v>
+        <v>11.04379699016579</v>
       </c>
       <c r="K13">
-        <v>17.02156181931868</v>
+        <v>10.96480432607378</v>
       </c>
       <c r="L13">
-        <v>8.5187394897085</v>
+        <v>9.637920098580704</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.9395636695956</v>
+        <v>22.59509889212974</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.64125053108655</v>
+        <v>14.43847979105706</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.939337586570563</v>
+        <v>10.32479866448196</v>
       </c>
       <c r="E14">
-        <v>8.944253367033308</v>
+        <v>15.43454229550568</v>
       </c>
       <c r="F14">
-        <v>20.29201293728412</v>
+        <v>30.82957788638002</v>
       </c>
       <c r="G14">
-        <v>21.89978295241025</v>
+        <v>30.33868515448852</v>
       </c>
       <c r="H14">
-        <v>8.50850036407734</v>
+        <v>14.71708507920068</v>
       </c>
       <c r="I14">
-        <v>14.70443058998908</v>
+        <v>26.03406168178367</v>
       </c>
       <c r="J14">
-        <v>6.425018748124405</v>
+        <v>11.04819007448641</v>
       </c>
       <c r="K14">
-        <v>16.89746192808331</v>
+        <v>10.90132800233738</v>
       </c>
       <c r="L14">
-        <v>8.450117901569174</v>
+        <v>9.624935558361548</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.94086938439961</v>
+        <v>22.60807889572571</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.56279621695422</v>
+        <v>14.41515066429854</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.926113223832557</v>
+        <v>10.32451584411136</v>
       </c>
       <c r="E15">
-        <v>8.952602992250453</v>
+        <v>15.43915730677761</v>
       </c>
       <c r="F15">
-        <v>20.27479039505205</v>
+        <v>30.83783752617252</v>
       </c>
       <c r="G15">
-        <v>21.8653945588157</v>
+        <v>30.34706311333594</v>
       </c>
       <c r="H15">
-        <v>8.515312298762241</v>
+        <v>14.72202225331798</v>
       </c>
       <c r="I15">
-        <v>14.74321800193932</v>
+        <v>26.04770176087444</v>
       </c>
       <c r="J15">
-        <v>6.432915664299088</v>
+        <v>11.05089676065702</v>
       </c>
       <c r="K15">
-        <v>16.82100779191682</v>
+        <v>10.86223555769154</v>
       </c>
       <c r="L15">
-        <v>8.407824185539353</v>
+        <v>9.616989767469846</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.94197835898985</v>
+        <v>22.61611712690107</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.10625430091979</v>
+        <v>14.28112603177973</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.850721493969957</v>
+        <v>10.3232935646493</v>
       </c>
       <c r="E16">
-        <v>9.001678462269808</v>
+        <v>15.46614593110069</v>
       </c>
       <c r="F16">
-        <v>20.18235343534081</v>
+        <v>30.88717361662819</v>
       </c>
       <c r="G16">
-        <v>21.67742569576097</v>
+        <v>30.39779558496677</v>
       </c>
       <c r="H16">
-        <v>8.556255672052044</v>
+        <v>14.75096035538642</v>
       </c>
       <c r="I16">
-        <v>14.9680460398714</v>
+        <v>26.12712844533002</v>
       </c>
       <c r="J16">
-        <v>6.47853388428868</v>
+        <v>11.06665017691505</v>
       </c>
       <c r="K16">
-        <v>16.37616508040002</v>
+        <v>10.6350045786049</v>
       </c>
       <c r="L16">
-        <v>8.161451384577489</v>
+        <v>9.571580574142157</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.95297713279856</v>
+        <v>22.66352289192037</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.82000040183216</v>
+        <v>14.19864326456798</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.804837859516477</v>
+        <v>10.3229002933965</v>
       </c>
       <c r="E17">
-        <v>9.032866174773989</v>
+        <v>15.48318667109942</v>
       </c>
       <c r="F17">
-        <v>20.13114572499816</v>
+        <v>30.91922588764102</v>
       </c>
       <c r="G17">
-        <v>21.57013312985483</v>
+        <v>30.43134200587903</v>
       </c>
       <c r="H17">
-        <v>8.583033272511372</v>
+        <v>14.76928881607303</v>
       </c>
       <c r="I17">
-        <v>15.10822213887822</v>
+        <v>26.17698075175614</v>
       </c>
       <c r="J17">
-        <v>6.506848642175695</v>
+        <v>11.0765311983679</v>
       </c>
       <c r="K17">
-        <v>16.09730073405237</v>
+        <v>10.49277946890062</v>
       </c>
       <c r="L17">
-        <v>8.021217366295556</v>
+        <v>9.543843877761946</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.96376481941695</v>
+        <v>22.69380130650311</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.65309417887315</v>
+        <v>14.15111905289002</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.778588445263411</v>
+        <v>10.32280551982095</v>
       </c>
       <c r="E18">
-        <v>9.051196755902826</v>
+        <v>15.49316618798091</v>
       </c>
       <c r="F18">
-        <v>20.10367874875513</v>
+        <v>30.93831729498637</v>
       </c>
       <c r="G18">
-        <v>21.51132765388824</v>
+        <v>30.45152567796902</v>
       </c>
       <c r="H18">
-        <v>8.599029099667174</v>
+        <v>14.7800425696148</v>
       </c>
       <c r="I18">
-        <v>15.18966536211747</v>
+        <v>26.20606909542346</v>
       </c>
       <c r="J18">
-        <v>6.523257369608176</v>
+        <v>11.08229434913267</v>
       </c>
       <c r="K18">
-        <v>15.93472312303188</v>
+        <v>10.40995189829707</v>
       </c>
       <c r="L18">
-        <v>7.944655433428736</v>
+        <v>9.527938219948393</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.97141356636353</v>
+        <v>22.7116560055434</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.59619550565407</v>
+        <v>14.13501540985605</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.769725825003198</v>
+        <v>10.32279603982964</v>
       </c>
       <c r="E19">
-        <v>9.057470060245159</v>
+        <v>15.49657569762551</v>
       </c>
       <c r="F19">
-        <v>20.0947166901484</v>
+        <v>30.94489388855657</v>
       </c>
       <c r="G19">
-        <v>21.49191217625425</v>
+        <v>30.45851195141996</v>
       </c>
       <c r="H19">
-        <v>8.604545554757665</v>
+        <v>14.78371997417033</v>
       </c>
       <c r="I19">
-        <v>15.21738022159543</v>
+        <v>26.21598917587463</v>
       </c>
       <c r="J19">
-        <v>6.528834342424076</v>
+        <v>11.08425938332524</v>
       </c>
       <c r="K19">
-        <v>15.87930350714003</v>
+        <v>10.38173364737808</v>
       </c>
       <c r="L19">
-        <v>7.918593211160436</v>
+        <v>9.522561372451424</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.97424744266198</v>
+        <v>22.71777672542465</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.8507068421118</v>
+        <v>14.20743254016361</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.809707746936667</v>
+        <v>10.32292856441294</v>
       </c>
       <c r="E20">
-        <v>9.029505479480013</v>
+        <v>15.48135422427872</v>
       </c>
       <c r="F20">
-        <v>20.13639049835379</v>
+        <v>30.91574598254709</v>
       </c>
       <c r="G20">
-        <v>21.58125284238995</v>
+        <v>30.42767891235871</v>
       </c>
       <c r="H20">
-        <v>8.580120912571997</v>
+        <v>14.76731581093096</v>
       </c>
       <c r="I20">
-        <v>15.09321532544908</v>
+        <v>26.17163099087295</v>
       </c>
       <c r="J20">
-        <v>6.503821814785684</v>
+        <v>11.07547108661215</v>
       </c>
       <c r="K20">
-        <v>16.12721243951377</v>
+        <v>10.5080258539064</v>
       </c>
       <c r="L20">
-        <v>8.035320581364992</v>
+        <v>9.546791633018438</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.96246608959754</v>
+        <v>22.6905326377768</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.67874824929295</v>
+        <v>14.44966031983071</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.945685717485615</v>
+        <v>10.3249413182484</v>
       </c>
       <c r="E21">
-        <v>8.94027139638245</v>
+        <v>15.43233884914846</v>
       </c>
       <c r="F21">
-        <v>20.30038349268595</v>
+        <v>30.82565262465332</v>
       </c>
       <c r="G21">
-        <v>21.91643533643774</v>
+        <v>30.33471591020465</v>
       </c>
       <c r="H21">
-        <v>8.505268182851944</v>
+        <v>14.71472897967711</v>
       </c>
       <c r="I21">
-        <v>14.68587653869447</v>
+        <v>26.02754317700202</v>
       </c>
       <c r="J21">
-        <v>6.421238340450483</v>
+        <v>11.04689642837471</v>
       </c>
       <c r="K21">
-        <v>16.93400468102059</v>
+        <v>10.92001665862967</v>
       </c>
       <c r="L21">
-        <v>8.470328109216839</v>
+        <v>9.62874786529809</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.94042120170598</v>
+        <v>22.60424809543463</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.19959337499195</v>
+        <v>14.60693571425627</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.035671759669396</v>
+        <v>10.32741857815437</v>
       </c>
       <c r="E22">
-        <v>8.885558120694389</v>
+        <v>15.40188583606427</v>
       </c>
       <c r="F22">
-        <v>20.425969090628</v>
+        <v>30.77262399406586</v>
       </c>
       <c r="G22">
-        <v>22.1622005321957</v>
+        <v>30.28191478928957</v>
       </c>
       <c r="H22">
-        <v>8.461986024988747</v>
+        <v>14.68224407572124</v>
       </c>
       <c r="I22">
-        <v>14.42716289284427</v>
+        <v>25.93705310646805</v>
       </c>
       <c r="J22">
-        <v>6.368321264706871</v>
+        <v>11.02892865196459</v>
       </c>
       <c r="K22">
-        <v>17.44165181538693</v>
+        <v>11.17985575518111</v>
       </c>
       <c r="L22">
-        <v>8.750775777593294</v>
+        <v>9.682661319243529</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.93974183721186</v>
+        <v>22.55177615250001</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.92347584149017</v>
+        <v>14.52310385508856</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.9875492564157</v>
+        <v>10.32599054078349</v>
       </c>
       <c r="E23">
-        <v>8.914423913525901</v>
+        <v>15.41799472219101</v>
       </c>
       <c r="F23">
-        <v>20.35722416166188</v>
+        <v>30.80039027245735</v>
       </c>
       <c r="G23">
-        <v>22.02855171842101</v>
+        <v>30.3093658618272</v>
       </c>
       <c r="H23">
-        <v>8.484553122570274</v>
+        <v>14.69940960361488</v>
       </c>
       <c r="I23">
-        <v>14.56454402379848</v>
+        <v>25.98501326760432</v>
       </c>
       <c r="J23">
-        <v>6.396469352105235</v>
+        <v>11.03845383853022</v>
       </c>
       <c r="K23">
-        <v>17.17251578565609</v>
+        <v>11.04205033572249</v>
       </c>
       <c r="L23">
-        <v>8.602162812558497</v>
+        <v>9.653858280074768</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.93880601355524</v>
+        <v>22.57942237275928</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.83683173109844</v>
+        <v>14.20345922849417</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.807505665233418</v>
+        <v>10.32291537394945</v>
       </c>
       <c r="E24">
-        <v>9.031023604051363</v>
+        <v>15.48218210476026</v>
       </c>
       <c r="F24">
-        <v>20.13401319897584</v>
+        <v>30.91731717908493</v>
       </c>
       <c r="G24">
-        <v>21.57621666429272</v>
+        <v>30.42933220213464</v>
       </c>
       <c r="H24">
-        <v>8.581435722215391</v>
+        <v>14.76820713222428</v>
       </c>
       <c r="I24">
-        <v>15.09999724770906</v>
+        <v>26.17404828572412</v>
       </c>
       <c r="J24">
-        <v>6.505189837504299</v>
+        <v>11.07595010636864</v>
       </c>
       <c r="K24">
-        <v>16.11369637805828</v>
+        <v>10.50113626279212</v>
       </c>
       <c r="L24">
-        <v>8.028947179587274</v>
+        <v>9.545458825762859</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.9630487486381</v>
+        <v>22.69200900988727</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.57852899362405</v>
+        <v>13.85571352012145</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.618802071947637</v>
+        <v>10.32462712712716</v>
       </c>
       <c r="E25">
-        <v>9.171734577017</v>
+        <v>15.55823212156523</v>
       </c>
       <c r="F25">
-        <v>19.96868747721517</v>
+        <v>31.06850459027515</v>
       </c>
       <c r="G25">
-        <v>21.19872438974609</v>
+        <v>30.59268068567665</v>
       </c>
       <c r="H25">
-        <v>8.708473859312802</v>
+        <v>14.85051158825082</v>
       </c>
       <c r="I25">
-        <v>15.70876260910249</v>
+        <v>26.39381297301028</v>
       </c>
       <c r="J25">
-        <v>6.627179193935964</v>
+        <v>11.1194509666786</v>
       </c>
       <c r="K25">
-        <v>14.8883932479056</v>
+        <v>9.878793782624827</v>
       </c>
       <c r="L25">
-        <v>7.455960135901944</v>
+        <v>9.430401315860168</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.04389986724907</v>
+        <v>22.83024485959526</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_249/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_249/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.59876144578819</v>
+        <v>12.57968579785162</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.33025063612868</v>
+        <v>6.485344778405018</v>
       </c>
       <c r="E2">
-        <v>15.6201235816481</v>
+        <v>9.287654442728615</v>
       </c>
       <c r="F2">
-        <v>31.20130980610337</v>
+        <v>19.90746626125157</v>
       </c>
       <c r="G2">
-        <v>30.74189977499416</v>
+        <v>21.00993862148123</v>
       </c>
       <c r="H2">
-        <v>14.91809306450685</v>
+        <v>8.819696827441295</v>
       </c>
       <c r="I2">
-        <v>26.56936379662695</v>
+        <v>16.18306877134568</v>
       </c>
       <c r="J2">
-        <v>11.15413369404624</v>
+        <v>6.721266873663072</v>
       </c>
       <c r="K2">
-        <v>9.389141871653191</v>
+        <v>13.91636394007455</v>
       </c>
       <c r="L2">
-        <v>9.347667937842663</v>
+        <v>7.009224659269922</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.94644218535537</v>
+        <v>14.14585320530262</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.42491336756516</v>
+        <v>11.85909569481822</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.33680074722178</v>
+        <v>6.398695916864637</v>
       </c>
       <c r="E3">
-        <v>15.66576440625294</v>
+        <v>9.373655011774478</v>
       </c>
       <c r="F3">
-        <v>31.3046774702009</v>
+        <v>19.9013186436097</v>
       </c>
       <c r="G3">
-        <v>30.86094587252274</v>
+        <v>20.93407820752169</v>
       </c>
       <c r="H3">
-        <v>14.9682581153946</v>
+        <v>8.905330840514917</v>
       </c>
       <c r="I3">
-        <v>26.69695683065929</v>
+        <v>16.5205373675946</v>
       </c>
       <c r="J3">
-        <v>11.17930656722714</v>
+        <v>6.787793463899256</v>
       </c>
       <c r="K3">
-        <v>9.038988737968175</v>
+        <v>13.21540459250417</v>
       </c>
       <c r="L3">
-        <v>9.293022183203908</v>
+        <v>6.692308106875081</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.03416769223677</v>
+        <v>14.23914354130561</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.31860683793639</v>
+        <v>11.39583472664998</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.34217889220578</v>
+        <v>6.347486496864296</v>
       </c>
       <c r="E4">
-        <v>15.6956174040263</v>
+        <v>9.430056345067159</v>
       </c>
       <c r="F4">
-        <v>31.37472359664035</v>
+        <v>19.91412981342797</v>
       </c>
       <c r="G4">
-        <v>30.94283025612953</v>
+        <v>20.91185033828545</v>
       </c>
       <c r="H4">
-        <v>15.00121564842478</v>
+        <v>8.962733117122205</v>
       </c>
       <c r="I4">
-        <v>26.77956808317264</v>
+        <v>16.73559998349011</v>
       </c>
       <c r="J4">
-        <v>11.19558984799751</v>
+        <v>6.83003529529483</v>
       </c>
       <c r="K4">
-        <v>8.815487649723725</v>
+        <v>12.76483888623689</v>
       </c>
       <c r="L4">
-        <v>9.260232783906149</v>
+        <v>6.491310146609935</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.09245471724982</v>
+        <v>14.30762785722695</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.27544086479237</v>
+        <v>11.20195818391607</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.34471239689204</v>
+        <v>6.327137081875116</v>
       </c>
       <c r="E5">
-        <v>15.70824359950783</v>
+        <v>9.453934359847699</v>
       </c>
       <c r="F5">
-        <v>31.40491985603799</v>
+        <v>19.92339134530003</v>
       </c>
       <c r="G5">
-        <v>30.97840148370277</v>
+        <v>20.90870189769721</v>
       </c>
       <c r="H5">
-        <v>15.01518867998672</v>
+        <v>8.987304438295157</v>
       </c>
       <c r="I5">
-        <v>26.81430845814576</v>
+        <v>16.82520944340076</v>
       </c>
       <c r="J5">
-        <v>11.20243397160338</v>
+        <v>6.847604171569192</v>
       </c>
       <c r="K5">
-        <v>8.722361352655946</v>
+        <v>12.57627920320642</v>
       </c>
       <c r="L5">
-        <v>9.247071994819461</v>
+        <v>6.407892252961784</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.11731859817586</v>
+        <v>14.33824714747584</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.2682838490571</v>
+        <v>11.16946221187218</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10.34515375340421</v>
+        <v>6.323789904739282</v>
       </c>
       <c r="E6">
-        <v>15.71036802938387</v>
+        <v>9.45795299051977</v>
       </c>
       <c r="F6">
-        <v>31.41003362598413</v>
+        <v>19.92516941313496</v>
       </c>
       <c r="G6">
-        <v>30.98444086851655</v>
+        <v>20.90852953254098</v>
       </c>
       <c r="H6">
-        <v>15.01754167382994</v>
+        <v>8.991454786062432</v>
       </c>
       <c r="I6">
-        <v>26.8201421019381</v>
+        <v>16.84020786899164</v>
       </c>
       <c r="J6">
-        <v>11.20358304665675</v>
+        <v>6.850543036766727</v>
       </c>
       <c r="K6">
-        <v>8.706776997734005</v>
+        <v>12.54467408529798</v>
       </c>
       <c r="L6">
-        <v>9.244899069108683</v>
+        <v>6.393952884779995</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.12151433153906</v>
+        <v>14.34349217928512</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.31802400043209</v>
+        <v>11.39324045586906</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.34221167471339</v>
+        <v>6.347209934377716</v>
       </c>
       <c r="E7">
-        <v>15.69578581817915</v>
+        <v>9.430374765737751</v>
       </c>
       <c r="F7">
-        <v>31.37512414847205</v>
+        <v>19.91423853031797</v>
       </c>
       <c r="G7">
-        <v>30.94330107379307</v>
+        <v>20.91178424127243</v>
       </c>
       <c r="H7">
-        <v>15.0014018961981</v>
+        <v>8.963059761623789</v>
       </c>
       <c r="I7">
-        <v>26.78003224588362</v>
+        <v>16.73680051849253</v>
       </c>
       <c r="J7">
-        <v>11.19568130502535</v>
+        <v>6.830270792234091</v>
       </c>
       <c r="K7">
-        <v>8.814239878975922</v>
+        <v>12.76231576878726</v>
       </c>
       <c r="L7">
-        <v>9.260054466453896</v>
+        <v>6.490191109821013</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.09278554111435</v>
+        <v>14.30802995912029</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.53875491477913</v>
+        <v>12.33562126355016</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.33222810393497</v>
+        <v>6.455065429590956</v>
       </c>
       <c r="E8">
-        <v>15.63548137017385</v>
+        <v>9.316554514969951</v>
       </c>
       <c r="F8">
-        <v>31.23558444186346</v>
+        <v>19.90182728936266</v>
       </c>
       <c r="G8">
-        <v>30.78111815291954</v>
+        <v>20.97860376554797</v>
       </c>
       <c r="H8">
-        <v>14.93494275626057</v>
+        <v>8.848201881751802</v>
       </c>
       <c r="I8">
-        <v>26.61247327477432</v>
+        <v>16.29779343799983</v>
       </c>
       <c r="J8">
-        <v>11.16264200543635</v>
+        <v>6.743918558930117</v>
       </c>
       <c r="K8">
-        <v>9.270225670694177</v>
+        <v>13.67892614300577</v>
       </c>
       <c r="L8">
-        <v>9.328673262438212</v>
+        <v>6.901338952460098</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.97577142331287</v>
+        <v>14.17562980737362</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.97310535419625</v>
+        <v>14.01377998646304</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.32337519581865</v>
+        <v>6.681565881867075</v>
       </c>
       <c r="E9">
-        <v>15.5317010624111</v>
+        <v>9.122388851305557</v>
       </c>
       <c r="F9">
-        <v>31.01423426777663</v>
+        <v>20.01467273462829</v>
       </c>
       <c r="G9">
-        <v>30.53314254704701</v>
+        <v>21.31160616757296</v>
       </c>
       <c r="H9">
-        <v>14.82170402188708</v>
+        <v>8.662825067973543</v>
       </c>
       <c r="I9">
-        <v>26.31765726487633</v>
+        <v>15.49960772997973</v>
       </c>
       <c r="J9">
-        <v>11.10438719451152</v>
+        <v>6.585437699490663</v>
       </c>
       <c r="K9">
-        <v>10.09346281213534</v>
+        <v>15.31212994377903</v>
       </c>
       <c r="L9">
-        <v>9.468875690557152</v>
+        <v>7.652982103720622</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.78143877624916</v>
+        <v>14.0097685387439</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.29052569285846</v>
+        <v>15.1386107311313</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.32335622014657</v>
+        <v>6.855975830270202</v>
       </c>
       <c r="E10">
-        <v>15.46422558501945</v>
+        <v>8.998173249659544</v>
       </c>
       <c r="F10">
-        <v>30.88360513692709</v>
+        <v>20.18846828543202</v>
       </c>
       <c r="G10">
-        <v>30.3940882706026</v>
+        <v>21.69006539709995</v>
       </c>
       <c r="H10">
-        <v>14.7488976319798</v>
+        <v>8.553281809302009</v>
       </c>
       <c r="I10">
-        <v>26.12149608906765</v>
+        <v>14.95216244307717</v>
       </c>
       <c r="J10">
-        <v>11.06553349091945</v>
+        <v>6.475319490721594</v>
       </c>
       <c r="K10">
-        <v>10.65109364631567</v>
+        <v>16.40768891226878</v>
       </c>
       <c r="L10">
-        <v>9.574751740696419</v>
+        <v>8.17892765933162</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.66012747430565</v>
+        <v>13.951944797137</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.43401994283967</v>
+        <v>15.62627462430585</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.3247430415326</v>
+        <v>6.936807215390392</v>
       </c>
       <c r="E11">
-        <v>15.43542273163673</v>
+        <v>8.945845283558556</v>
       </c>
       <c r="F11">
-        <v>30.83114962525852</v>
+        <v>20.28869500787266</v>
       </c>
       <c r="G11">
-        <v>30.34027673023848</v>
+        <v>21.89317137675685</v>
       </c>
       <c r="H11">
-        <v>14.71802672191015</v>
+        <v>8.509795517015615</v>
       </c>
       <c r="I11">
-        <v>26.03666520703997</v>
+        <v>14.71183797034888</v>
       </c>
       <c r="J11">
-        <v>11.04870673853024</v>
+        <v>6.426527483576418</v>
       </c>
       <c r="K11">
-        <v>10.8938648416299</v>
+        <v>16.88286760293234</v>
       </c>
       <c r="L11">
-        <v>9.623415621448034</v>
+        <v>8.442045533840339</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.60961085610521</v>
+        <v>13.94106319441195</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.48818399460891</v>
+        <v>15.80745596136102</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.32546763204921</v>
+        <v>6.96760950347472</v>
       </c>
       <c r="E12">
-        <v>15.42478707646827</v>
+        <v>8.926647084392739</v>
       </c>
       <c r="F12">
-        <v>30.81228981734013</v>
+        <v>20.32979901165277</v>
       </c>
       <c r="G12">
-        <v>30.32126391070142</v>
+        <v>21.97465716693779</v>
       </c>
       <c r="H12">
-        <v>14.70665975698107</v>
+        <v>8.49429114606594</v>
       </c>
       <c r="I12">
-        <v>26.00517302488946</v>
+        <v>14.62211655646109</v>
       </c>
       <c r="J12">
-        <v>11.04245622049322</v>
+        <v>6.408232644010218</v>
       </c>
       <c r="K12">
-        <v>10.98418368503997</v>
+        <v>17.05943956441494</v>
       </c>
       <c r="L12">
-        <v>9.641904558879606</v>
+        <v>8.539677088507339</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.59115374815196</v>
+        <v>13.93928759514671</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.47652723351263</v>
+        <v>15.76859074831371</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.32530272925992</v>
+        <v>6.960967421284963</v>
       </c>
       <c r="E13">
-        <v>15.4270655976377</v>
+        <v>8.930754033132125</v>
       </c>
       <c r="F13">
-        <v>30.81630693455844</v>
+        <v>20.32080479821257</v>
       </c>
       <c r="G13">
-        <v>30.32529788298864</v>
+        <v>21.95690255100608</v>
       </c>
       <c r="H13">
-        <v>14.70909346646032</v>
+        <v>8.497586625683438</v>
       </c>
       <c r="I13">
-        <v>26.01192737544896</v>
+        <v>14.64138196822357</v>
       </c>
       <c r="J13">
-        <v>11.04379699016579</v>
+        <v>6.412164776600574</v>
       </c>
       <c r="K13">
-        <v>10.96480432607378</v>
+        <v>17.02156181931873</v>
       </c>
       <c r="L13">
-        <v>9.637920098580704</v>
+        <v>8.51873948970851</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.59509889212974</v>
+        <v>13.93956366959555</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.43847979105706</v>
+        <v>15.64125053108658</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.32479866448196</v>
+        <v>6.939337586570574</v>
       </c>
       <c r="E14">
-        <v>15.43454229550568</v>
+        <v>8.944253367033497</v>
       </c>
       <c r="F14">
-        <v>30.82957788638002</v>
+        <v>20.29201293728412</v>
       </c>
       <c r="G14">
-        <v>30.33868515448852</v>
+        <v>21.89978295241023</v>
       </c>
       <c r="H14">
-        <v>14.71708507920068</v>
+        <v>8.508500364077335</v>
       </c>
       <c r="I14">
-        <v>26.03406168178367</v>
+        <v>14.70443058998908</v>
       </c>
       <c r="J14">
-        <v>11.04819007448641</v>
+        <v>6.425018748124506</v>
       </c>
       <c r="K14">
-        <v>10.90132800233738</v>
+        <v>16.89746192808331</v>
       </c>
       <c r="L14">
-        <v>9.624935558361548</v>
+        <v>8.450117901569106</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.60807889572571</v>
+        <v>13.9408693843996</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.41515066429854</v>
+        <v>15.56279621695426</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.32451584411136</v>
+        <v>6.926113223832614</v>
       </c>
       <c r="E15">
-        <v>15.43915730677761</v>
+        <v>8.952602992250645</v>
       </c>
       <c r="F15">
-        <v>30.83783752617252</v>
+        <v>20.27479039505184</v>
       </c>
       <c r="G15">
-        <v>30.34706311333594</v>
+        <v>21.86539455881551</v>
       </c>
       <c r="H15">
-        <v>14.72202225331798</v>
+        <v>8.515312298762129</v>
       </c>
       <c r="I15">
-        <v>26.04770176087444</v>
+        <v>14.7432180019392</v>
       </c>
       <c r="J15">
-        <v>11.05089676065702</v>
+        <v>6.432915664299088</v>
       </c>
       <c r="K15">
-        <v>10.86223555769154</v>
+        <v>16.82100779191683</v>
       </c>
       <c r="L15">
-        <v>9.616989767469846</v>
+        <v>8.407824185539376</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.61611712690107</v>
+        <v>13.94197835898964</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.28112603177973</v>
+        <v>15.10625430091981</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.3232935646493</v>
+        <v>6.85072149397008</v>
       </c>
       <c r="E16">
-        <v>15.46614593110069</v>
+        <v>9.001678462269988</v>
       </c>
       <c r="F16">
-        <v>30.88717361662819</v>
+        <v>20.18235343534072</v>
       </c>
       <c r="G16">
-        <v>30.39779558496677</v>
+        <v>21.67742569576071</v>
       </c>
       <c r="H16">
-        <v>14.75096035538642</v>
+        <v>8.556255672051986</v>
       </c>
       <c r="I16">
-        <v>26.12712844533002</v>
+        <v>14.96804603987137</v>
       </c>
       <c r="J16">
-        <v>11.06665017691505</v>
+        <v>6.478533884288678</v>
       </c>
       <c r="K16">
-        <v>10.6350045786049</v>
+        <v>16.37616508040008</v>
       </c>
       <c r="L16">
-        <v>9.571580574142157</v>
+        <v>8.161451384577537</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.66352289192037</v>
+        <v>13.9529771327984</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.19864326456798</v>
+        <v>14.82000040183219</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.3229002933965</v>
+        <v>6.804837859516375</v>
       </c>
       <c r="E17">
-        <v>15.48318667109942</v>
+        <v>9.032866174773932</v>
       </c>
       <c r="F17">
-        <v>30.91922588764102</v>
+        <v>20.13114572499803</v>
       </c>
       <c r="G17">
-        <v>30.43134200587903</v>
+        <v>21.57013312985474</v>
       </c>
       <c r="H17">
-        <v>14.76928881607303</v>
+        <v>8.583033272511267</v>
       </c>
       <c r="I17">
-        <v>26.17698075175614</v>
+        <v>15.10822213887812</v>
       </c>
       <c r="J17">
-        <v>11.0765311983679</v>
+        <v>6.506848642175661</v>
       </c>
       <c r="K17">
-        <v>10.49277946890062</v>
+        <v>16.09730073405236</v>
       </c>
       <c r="L17">
-        <v>9.543843877761946</v>
+        <v>8.021217366295557</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.69380130650311</v>
+        <v>13.96376481941687</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.15111905289002</v>
+        <v>14.65309417887313</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.32280551982095</v>
+        <v>6.778588445263352</v>
       </c>
       <c r="E18">
-        <v>15.49316618798091</v>
+        <v>9.051196755902884</v>
       </c>
       <c r="F18">
-        <v>30.93831729498637</v>
+        <v>20.10367874875494</v>
       </c>
       <c r="G18">
-        <v>30.45152567796902</v>
+        <v>21.51132765388801</v>
       </c>
       <c r="H18">
-        <v>14.7800425696148</v>
+        <v>8.59902909966711</v>
       </c>
       <c r="I18">
-        <v>26.20606909542346</v>
+        <v>15.18966536211737</v>
       </c>
       <c r="J18">
-        <v>11.08229434913267</v>
+        <v>6.52325736960821</v>
       </c>
       <c r="K18">
-        <v>10.40995189829707</v>
+        <v>15.93472312303198</v>
       </c>
       <c r="L18">
-        <v>9.527938219948393</v>
+        <v>7.944655433428678</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.7116560055434</v>
+        <v>13.97141356636334</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.13501540985605</v>
+        <v>14.59619550565406</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.32279603982964</v>
+        <v>6.769725825003197</v>
       </c>
       <c r="E19">
-        <v>15.49657569762551</v>
+        <v>9.057470060245159</v>
       </c>
       <c r="F19">
-        <v>30.94489388855657</v>
+        <v>20.09471669014827</v>
       </c>
       <c r="G19">
-        <v>30.45851195141996</v>
+        <v>21.491912176254</v>
       </c>
       <c r="H19">
-        <v>14.78371997417033</v>
+        <v>8.60454555475761</v>
       </c>
       <c r="I19">
-        <v>26.21598917587463</v>
+        <v>15.21738022159534</v>
       </c>
       <c r="J19">
-        <v>11.08425938332524</v>
+        <v>6.528834342424108</v>
       </c>
       <c r="K19">
-        <v>10.38173364737808</v>
+        <v>15.87930350714006</v>
       </c>
       <c r="L19">
-        <v>9.522561372451424</v>
+        <v>7.918593211160409</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.71777672542465</v>
+        <v>13.97424744266186</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.20743254016361</v>
+        <v>14.85070684211182</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.32292856441294</v>
+        <v>6.809707746936653</v>
       </c>
       <c r="E20">
-        <v>15.48135422427872</v>
+        <v>9.029505479480074</v>
       </c>
       <c r="F20">
-        <v>30.91574598254709</v>
+        <v>20.13639049835368</v>
       </c>
       <c r="G20">
-        <v>30.42767891235871</v>
+        <v>21.58125284238981</v>
       </c>
       <c r="H20">
-        <v>14.76731581093096</v>
+        <v>8.580120912571896</v>
       </c>
       <c r="I20">
-        <v>26.17163099087295</v>
+        <v>15.09321532544902</v>
       </c>
       <c r="J20">
-        <v>11.07547108661215</v>
+        <v>6.503821814785718</v>
       </c>
       <c r="K20">
-        <v>10.5080258539064</v>
+        <v>16.12721243951384</v>
       </c>
       <c r="L20">
-        <v>9.546791633018438</v>
+        <v>8.035320581364957</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.6905326377768</v>
+        <v>13.96246608959742</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.44966031983071</v>
+        <v>15.67874824929296</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.3249413182484</v>
+        <v>6.945685717485641</v>
       </c>
       <c r="E21">
-        <v>15.43233884914846</v>
+        <v>8.940271396382455</v>
       </c>
       <c r="F21">
-        <v>30.82565262465332</v>
+        <v>20.3003834926858</v>
       </c>
       <c r="G21">
-        <v>30.33471591020465</v>
+        <v>21.91643533643761</v>
       </c>
       <c r="H21">
-        <v>14.71472897967711</v>
+        <v>8.505268182851877</v>
       </c>
       <c r="I21">
-        <v>26.02754317700202</v>
+        <v>14.68587653869429</v>
       </c>
       <c r="J21">
-        <v>11.04689642837471</v>
+        <v>6.421238340450483</v>
       </c>
       <c r="K21">
-        <v>10.92001665862967</v>
+        <v>16.9340046810206</v>
       </c>
       <c r="L21">
-        <v>9.62874786529809</v>
+        <v>8.470328109216812</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.60424809543463</v>
+        <v>13.94042120170587</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.60693571425627</v>
+        <v>16.19959337499196</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.32741857815437</v>
+        <v>7.035671759669439</v>
       </c>
       <c r="E22">
-        <v>15.40188583606427</v>
+        <v>8.885558120694455</v>
       </c>
       <c r="F22">
-        <v>30.77262399406586</v>
+        <v>20.42596909062798</v>
       </c>
       <c r="G22">
-        <v>30.28191478928957</v>
+        <v>22.1622005321956</v>
       </c>
       <c r="H22">
-        <v>14.68224407572124</v>
+        <v>8.461986024988757</v>
       </c>
       <c r="I22">
-        <v>25.93705310646805</v>
+        <v>14.42716289284429</v>
       </c>
       <c r="J22">
-        <v>11.02892865196459</v>
+        <v>6.368321264706838</v>
       </c>
       <c r="K22">
-        <v>11.17985575518111</v>
+        <v>17.44165181538699</v>
       </c>
       <c r="L22">
-        <v>9.682661319243529</v>
+        <v>8.750775777593303</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.55177615250001</v>
+        <v>13.93974183721181</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.52310385508856</v>
+        <v>15.92347584149018</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.32599054078349</v>
+        <v>6.987549256415656</v>
       </c>
       <c r="E23">
-        <v>15.41799472219101</v>
+        <v>8.914423913525964</v>
       </c>
       <c r="F23">
-        <v>30.80039027245735</v>
+        <v>20.35722416166184</v>
       </c>
       <c r="G23">
-        <v>30.3093658618272</v>
+        <v>22.02855171842099</v>
       </c>
       <c r="H23">
-        <v>14.69940960361488</v>
+        <v>8.48455312257027</v>
       </c>
       <c r="I23">
-        <v>25.98501326760432</v>
+        <v>14.56454402379855</v>
       </c>
       <c r="J23">
-        <v>11.03845383853022</v>
+        <v>6.396469352105267</v>
       </c>
       <c r="K23">
-        <v>11.04205033572249</v>
+        <v>17.17251578565611</v>
       </c>
       <c r="L23">
-        <v>9.653858280074768</v>
+        <v>8.602162812558504</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.57942237275928</v>
+        <v>13.93880601355522</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.20345922849417</v>
+        <v>14.83683173109845</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.32291537394945</v>
+        <v>6.807505665233389</v>
       </c>
       <c r="E24">
-        <v>15.48218210476026</v>
+        <v>9.031023604051422</v>
       </c>
       <c r="F24">
-        <v>30.91731717908493</v>
+        <v>20.13401319897556</v>
       </c>
       <c r="G24">
-        <v>30.42933220213464</v>
+        <v>21.57621666429254</v>
       </c>
       <c r="H24">
-        <v>14.76820713222428</v>
+        <v>8.581435722215275</v>
       </c>
       <c r="I24">
-        <v>26.17404828572412</v>
+        <v>15.09999724770896</v>
       </c>
       <c r="J24">
-        <v>11.07595010636864</v>
+        <v>6.505189837504465</v>
       </c>
       <c r="K24">
-        <v>10.50113626279212</v>
+        <v>16.11369637805832</v>
       </c>
       <c r="L24">
-        <v>9.545458825762859</v>
+        <v>8.028947179587256</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.69200900988727</v>
+        <v>13.96304874863793</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.85571352012145</v>
+        <v>13.57852899362405</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.32462712712716</v>
+        <v>6.618802071947552</v>
       </c>
       <c r="E25">
-        <v>15.55823212156523</v>
+        <v>9.171734577017009</v>
       </c>
       <c r="F25">
-        <v>31.06850459027515</v>
+        <v>19.96868747721503</v>
       </c>
       <c r="G25">
-        <v>30.59268068567665</v>
+        <v>21.19872438974592</v>
       </c>
       <c r="H25">
-        <v>14.85051158825082</v>
+        <v>8.708473859312802</v>
       </c>
       <c r="I25">
-        <v>26.39381297301028</v>
+        <v>15.70876260910256</v>
       </c>
       <c r="J25">
-        <v>11.1194509666786</v>
+        <v>6.627179193936032</v>
       </c>
       <c r="K25">
-        <v>9.878793782624827</v>
+        <v>14.88839324790563</v>
       </c>
       <c r="L25">
-        <v>9.430401315860168</v>
+        <v>7.455960135901901</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.83024485959526</v>
+        <v>14.04389986724896</v>
       </c>
     </row>
   </sheetData>
